--- a/GraphsMyUniqFixed.xlsx
+++ b/GraphsMyUniqFixed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SCExon" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Chromosome</t>
   </si>
@@ -34,13 +34,25 @@
   <si>
     <t>Intron SL</t>
   </si>
+  <si>
+    <t>AVG:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -71,14 +83,158 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -117,7 +273,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -139,155 +294,178 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>22</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="22">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$B$2:$B$22</c:f>
+              <c:f>Data!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>22454</c:v>
+                  <c:v>30944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17645</c:v>
+                  <c:v>25085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12916</c:v>
+                  <c:v>19217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14563</c:v>
+                  <c:v>14029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16061</c:v>
+                  <c:v>16042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13861</c:v>
+                  <c:v>17627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12022</c:v>
+                  <c:v>14967</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14647</c:v>
+                  <c:v>13078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11992</c:v>
+                  <c:v>15947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14753</c:v>
+                  <c:v>13007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15415</c:v>
+                  <c:v>16210</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7412</c:v>
+                  <c:v>16877</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9519</c:v>
+                  <c:v>8138</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10084</c:v>
+                  <c:v>10416</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11947</c:v>
+                  <c:v>11287</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14692</c:v>
+                  <c:v>13275</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5886</c:v>
+                  <c:v>16314</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16106</c:v>
+                  <c:v>6287</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7824</c:v>
+                  <c:v>17595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5051</c:v>
+                  <c:v>8378</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6500</c:v>
+                  <c:v>5708</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7246</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12749</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48898048"/>
-        <c:axId val="67243392"/>
+        <c:axId val="74028928"/>
+        <c:axId val="74044544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48898048"/>
+        <c:axId val="74028928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,18 +486,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67243392"/>
+        <c:crossAx val="74044544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67243392"/>
+        <c:axId val="74044544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -346,11 +523,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48898048"/>
+        <c:crossAx val="74028928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2500"/>
@@ -390,7 +566,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -412,155 +587,178 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numRef>
-              <c:f>Data!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>22</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="22">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$D$2:$D$22</c:f>
+              <c:f>Data!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>46343.375</c:v>
+                  <c:v>64070.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36149.375</c:v>
+                  <c:v>51784.375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26963.625</c:v>
+                  <c:v>39423.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30131.875</c:v>
+                  <c:v>29272.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32859.625</c:v>
+                  <c:v>33233.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28822.125</c:v>
+                  <c:v>36102.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24837.625</c:v>
+                  <c:v>31148.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30507.25</c:v>
+                  <c:v>27000.625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24648.25</c:v>
+                  <c:v>33214</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29878.75</c:v>
+                  <c:v>26686.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31528</c:v>
+                  <c:v>32842.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15490.625</c:v>
+                  <c:v>34557.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19572.375</c:v>
+                  <c:v>17098.875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20585.125</c:v>
+                  <c:v>21368.375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24366.375</c:v>
+                  <c:v>23058.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29953.25</c:v>
+                  <c:v>27124.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12206.375</c:v>
+                  <c:v>33201.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33045.25</c:v>
+                  <c:v>13063.25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16058.375</c:v>
+                  <c:v>36036.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10624.625</c:v>
+                  <c:v>17212.375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13415.625</c:v>
+                  <c:v>12043.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14908.625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26472.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3210.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="48899968"/>
-        <c:axId val="102720256"/>
+        <c:axId val="67925120"/>
+        <c:axId val="67927040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48899968"/>
+        <c:axId val="67925120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,18 +779,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102720256"/>
+        <c:crossAx val="67927040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102720256"/>
+        <c:axId val="67927040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,11 +811,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48899968"/>
+        <c:crossAx val="67925120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -632,7 +828,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -989,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,236 +1216,299 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>22454</v>
+        <v>30944</v>
       </c>
       <c r="D2" s="1">
-        <v>46343.375</v>
+        <v>64070.75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>17645</v>
+        <v>25085</v>
       </c>
       <c r="D3" s="1">
-        <v>36149.375</v>
+        <v>51784.375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>12916</v>
+        <v>19217</v>
       </c>
       <c r="D4" s="1">
-        <v>26963.625</v>
+        <v>39423.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>14563</v>
+        <v>14029</v>
       </c>
       <c r="D5" s="1">
-        <v>30131.875</v>
+        <v>29272.75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>16061</v>
+        <v>16042</v>
       </c>
       <c r="D6" s="1">
-        <v>32859.625</v>
+        <v>33233.625</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>13861</v>
+        <v>17627</v>
       </c>
       <c r="D7" s="1">
-        <v>28822.125</v>
+        <v>36102.875</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>12022</v>
+        <v>14967</v>
       </c>
       <c r="D8" s="1">
-        <v>24837.625</v>
+        <v>31148.75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>14647</v>
+        <v>13078</v>
       </c>
       <c r="D9" s="1">
-        <v>30507.25</v>
+        <v>27000.625</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>11992</v>
+        <v>15947</v>
       </c>
       <c r="D10" s="1">
-        <v>24648.25</v>
+        <v>33214</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>14753</v>
+        <v>13007</v>
       </c>
       <c r="D11" s="1">
-        <v>29878.75</v>
+        <v>26686.75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>15415</v>
+        <v>16210</v>
       </c>
       <c r="D12" s="1">
-        <v>31528</v>
+        <v>32842.75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>7412</v>
+        <v>16877</v>
       </c>
       <c r="D13" s="1">
-        <v>15490.625</v>
+        <v>34557.25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>9519</v>
+        <v>8138</v>
       </c>
       <c r="D14" s="1">
-        <v>19572.375</v>
+        <v>17098.875</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>10084</v>
+        <v>10416</v>
       </c>
       <c r="D15" s="1">
-        <v>20585.125</v>
+        <v>21368.375</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>11947</v>
+        <v>11287</v>
       </c>
       <c r="D16" s="1">
-        <v>24366.375</v>
+        <v>23058.25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>14692</v>
+        <v>13275</v>
       </c>
       <c r="D17" s="1">
-        <v>29953.25</v>
+        <v>27124.75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>5886</v>
+        <v>16314</v>
       </c>
       <c r="D18" s="1">
-        <v>12206.375</v>
+        <v>33201.75</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>16106</v>
+        <v>6287</v>
       </c>
       <c r="D19" s="1">
-        <v>33045.25</v>
+        <v>13063.25</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>7824</v>
+        <v>17595</v>
       </c>
       <c r="D20" s="1">
-        <v>16058.375</v>
+        <v>36036.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>5051</v>
+        <v>8378</v>
       </c>
       <c r="D21" s="1">
-        <v>10624.625</v>
+        <v>17212.375</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5708</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12043.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>6500</v>
-      </c>
-      <c r="D22" s="1">
-        <v>13415.625</v>
+      <c r="B23">
+        <v>7246</v>
+      </c>
+      <c r="D23" s="1">
+        <v>14908.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>12749</v>
+      </c>
+      <c r="D24" s="1">
+        <v>26472.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>1501</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3210.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>55.875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <f>AVERAGE(B2:B26)</f>
+        <v>13278.2</v>
+      </c>
+      <c r="D28" s="1">
+        <f>AVERAGE(D2:D26)</f>
+        <v>27367.73</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B26">
+    <cfRule type="aboveAverage" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="aboveAverage" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/GraphsMyUniqFixed.xlsx
+++ b/GraphsMyUniqFixed.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SCExon" sheetId="4" r:id="rId1"/>
     <sheet name="SLExon" sheetId="5" r:id="rId2"/>
-    <sheet name="Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="SCIntron" sheetId="6" r:id="rId3"/>
+    <sheet name="SLIntron" sheetId="9" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Chromosome</t>
   </si>
@@ -46,6 +48,30 @@
   <si>
     <t>M</t>
   </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Above Average</t>
+  </si>
+  <si>
+    <t>1 St.Dev. Above Avg</t>
+  </si>
+  <si>
+    <t>2 St.Dev. Above Avg</t>
+  </si>
+  <si>
+    <t>3 St.Dev. Above Avg</t>
+  </si>
+  <si>
+    <t>1 St.Dev. Below Avg</t>
+  </si>
+  <si>
+    <t>2 St.Dev. Below Avg</t>
+  </si>
+  <si>
+    <t>3 St.Dev. Below Avg</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +88,93 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -79,144 +182,1784 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+  <dxfs count="218">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -273,6 +2016,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -461,11 +2205,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74028928"/>
-        <c:axId val="74044544"/>
+        <c:axId val="82166528"/>
+        <c:axId val="82168832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74028928"/>
+        <c:axId val="82166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,17 +2230,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74044544"/>
+        <c:crossAx val="82168832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74044544"/>
+        <c:axId val="82168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,10 +2268,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74028928"/>
+        <c:crossAx val="82166528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2500"/>
@@ -566,6 +2312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -754,11 +2501,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67925120"/>
-        <c:axId val="67927040"/>
+        <c:axId val="82148352"/>
+        <c:axId val="82470016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67925120"/>
+        <c:axId val="82148352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,17 +2526,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67927040"/>
+        <c:crossAx val="82470016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67927040"/>
+        <c:axId val="82470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,10 +2559,573 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67925120"/>
+        <c:crossAx val="82148352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score Count</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>Introns</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>802408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>902389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>742065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>759529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>686203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>641010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>541594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>437754</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>479793</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>473996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>478101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>387212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>327065</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>287734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>259339</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>245630</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>288357</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>156236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200446</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107174</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>570014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95171</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75460608"/>
+        <c:axId val="75462144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75460608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chromosome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75462144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75462144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75460608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score Length</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Introns</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Y</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1691161</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1917780.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1576285.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1633844.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1463133.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1365146.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1232994.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1148942</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>922858.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1012522.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>999725.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1014530.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>831611.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>692932.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>604150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>543793.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>514247.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>614191.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>327120.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>418081.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>284215.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>223640.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1216056.625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>204004.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="113597056"/>
+        <c:axId val="113627520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113597056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chromosome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113627520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113627520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Score Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113597056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,6 +3147,28 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -874,6 +3207,60 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6288942"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6288942"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -1185,311 +3572,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>30944</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="12">
+        <v>802408</v>
+      </c>
+      <c r="D2" s="13">
         <v>64070.75</v>
       </c>
+      <c r="E2" s="16">
+        <v>1691161</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>25085</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="2">
+        <v>902389</v>
+      </c>
+      <c r="D3" s="3">
         <v>51784.375</v>
       </c>
+      <c r="E3" s="17">
+        <v>1917780.125</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:9">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>19217</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="2">
+        <v>742065</v>
+      </c>
+      <c r="D4" s="3">
         <v>39423.5</v>
       </c>
+      <c r="E4" s="17">
+        <v>1576285.5</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="5" spans="1:9">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>14029</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2">
+        <v>759529</v>
+      </c>
+      <c r="D5" s="3">
         <v>29272.75</v>
       </c>
+      <c r="E5" s="17">
+        <v>1633844.75</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="6" spans="1:9">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>16042</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="2">
+        <v>686203</v>
+      </c>
+      <c r="D6" s="3">
         <v>33233.625</v>
       </c>
+      <c r="E6" s="17">
+        <v>1463133.25</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>17627</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="2">
+        <v>641010</v>
+      </c>
+      <c r="D7" s="3">
         <v>36102.875</v>
       </c>
+      <c r="E7" s="17">
+        <v>1365146.5</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8" spans="1:9">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>14967</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="2">
+        <v>579898</v>
+      </c>
+      <c r="D8" s="3">
         <v>31148.75</v>
       </c>
+      <c r="E8" s="17">
+        <v>1232994.25</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="9" spans="1:9">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>13078</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="2">
+        <v>541594</v>
+      </c>
+      <c r="D9" s="3">
         <v>27000.625</v>
       </c>
+      <c r="E9" s="17">
+        <v>1148942</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>15947</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="2">
+        <v>437754</v>
+      </c>
+      <c r="D10" s="3">
         <v>33214</v>
       </c>
+      <c r="E10" s="17">
+        <v>922858.875</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="11" spans="1:9">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <v>13007</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="2">
+        <v>479793</v>
+      </c>
+      <c r="D11" s="3">
         <v>26686.75</v>
       </c>
+      <c r="E11" s="17">
+        <v>1012522.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="12" spans="1:9">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>16210</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="2">
+        <v>473996</v>
+      </c>
+      <c r="D12" s="3">
         <v>32842.75</v>
       </c>
+      <c r="E12" s="17">
+        <v>999725.625</v>
+      </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="13" spans="1:9">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>16877</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="2">
+        <v>478101</v>
+      </c>
+      <c r="D13" s="3">
         <v>34557.25</v>
       </c>
+      <c r="E13" s="17">
+        <v>1014530.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="14" spans="1:9">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>8138</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="2">
+        <v>387212</v>
+      </c>
+      <c r="D14" s="3">
         <v>17098.875</v>
       </c>
+      <c r="E14" s="17">
+        <v>831611.125</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="15" spans="1:9">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>10416</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C15" s="2">
+        <v>327065</v>
+      </c>
+      <c r="D15" s="3">
         <v>21368.375</v>
       </c>
+      <c r="E15" s="17">
+        <v>692932.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="16" spans="1:9">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>11287</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C16" s="2">
+        <v>287734</v>
+      </c>
+      <c r="D16" s="3">
         <v>23058.25</v>
       </c>
+      <c r="E16" s="17">
+        <v>604150</v>
+      </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="17" spans="1:5">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <v>13275</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C17" s="2">
+        <v>259339</v>
+      </c>
+      <c r="D17" s="3">
         <v>27124.75</v>
       </c>
+      <c r="E17" s="17">
+        <v>543793.125</v>
+      </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="18" spans="1:5">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <v>16314</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
+        <v>245630</v>
+      </c>
+      <c r="D18" s="3">
         <v>33201.75</v>
       </c>
+      <c r="E18" s="17">
+        <v>514247.375</v>
+      </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    <row r="19" spans="1:5">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>6287</v>
       </c>
-      <c r="D19" s="1">
+      <c r="C19" s="2">
+        <v>288357</v>
+      </c>
+      <c r="D19" s="3">
         <v>13063.25</v>
       </c>
+      <c r="E19" s="17">
+        <v>614191.625</v>
+      </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="20" spans="1:5">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>17595</v>
       </c>
-      <c r="D20" s="1">
+      <c r="C20" s="2">
+        <v>156236</v>
+      </c>
+      <c r="D20" s="3">
         <v>36036.5</v>
       </c>
+      <c r="E20" s="17">
+        <v>327120.75</v>
+      </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="21" spans="1:5">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <v>8378</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C21" s="2">
+        <v>200446</v>
+      </c>
+      <c r="D21" s="3">
         <v>17212.375</v>
       </c>
+      <c r="E21" s="17">
+        <v>418081.625</v>
+      </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    <row r="22" spans="1:5">
+      <c r="A22" s="22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="11">
         <v>5708</v>
       </c>
-      <c r="D22" s="1">
+      <c r="C22" s="2">
+        <v>133201</v>
+      </c>
+      <c r="D22" s="3">
         <v>12043.25</v>
       </c>
+      <c r="E22" s="17">
+        <v>284215.25</v>
+      </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="23" spans="1:5">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>7246</v>
       </c>
-      <c r="D23" s="1">
+      <c r="C23" s="2">
+        <v>107174</v>
+      </c>
+      <c r="D23" s="3">
         <v>14908.625</v>
       </c>
+      <c r="E23" s="17">
+        <v>223640.25</v>
+      </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>12749</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C24" s="2">
+        <v>570014</v>
+      </c>
+      <c r="D24" s="3">
         <v>26472.5</v>
       </c>
+      <c r="E24" s="17">
+        <v>1216056.625</v>
+      </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>1501</v>
       </c>
-      <c r="D25" s="1">
+      <c r="C25" s="2">
+        <v>95171</v>
+      </c>
+      <c r="D25" s="3">
         <v>3210.875</v>
       </c>
+      <c r="E25" s="17">
+        <v>204004.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="19">
         <v>31</v>
       </c>
-      <c r="D26" s="1">
+      <c r="C26" s="20">
+        <v>17</v>
+      </c>
+      <c r="D26" s="21">
         <v>55.875</v>
       </c>
+      <c r="E26" s="18">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="27" spans="1:5" ht="15.75" thickTop="1"/>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1497,17 +4078,55 @@
         <f>AVERAGE(B2:B26)</f>
         <v>13278.2</v>
       </c>
+      <c r="C28">
+        <f>AVERAGE(C2:C26)</f>
+        <v>423293.44</v>
+      </c>
       <c r="D28" s="1">
         <f>AVERAGE(D2:D26)</f>
         <v>27367.73</v>
       </c>
+      <c r="E28" s="1">
+        <f>AVERAGE(E2:E26)</f>
+        <v>898120.06499999994</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="aboveAverage" dxfId="2" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="91" priority="30"/>
+    <cfRule type="aboveAverage" dxfId="90" priority="23" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="89" priority="21" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="88" priority="20" stdDev="3"/>
+    <cfRule type="aboveAverage" dxfId="87" priority="12" aboveAverage="0" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="86" priority="11" aboveAverage="0" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="85" priority="10" aboveAverage="0" stdDev="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D26">
-    <cfRule type="aboveAverage" dxfId="1" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="29" priority="29"/>
+    <cfRule type="aboveAverage" dxfId="30" priority="19" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="31" priority="18" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="32" priority="17" stdDev="3"/>
+    <cfRule type="aboveAverage" dxfId="33" priority="6" aboveAverage="0" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="34" priority="5" aboveAverage="0" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="28" priority="4" aboveAverage="0" stdDev="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="aboveAverage" dxfId="51" priority="28"/>
+    <cfRule type="aboveAverage" dxfId="52" priority="26" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="53" priority="25" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="54" priority="24" stdDev="3"/>
+    <cfRule type="aboveAverage" dxfId="55" priority="9" aboveAverage="0" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="56" priority="8" aboveAverage="0" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="50" priority="7" aboveAverage="0" stdDev="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E26">
+    <cfRule type="aboveAverage" dxfId="7" priority="27"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="16" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="15" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="10" priority="13" stdDev="3"/>
+    <cfRule type="aboveAverage" dxfId="11" priority="3" aboveAverage="0" stdDev="1"/>
+    <cfRule type="aboveAverage" dxfId="12" priority="2" aboveAverage="0" stdDev="2"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="1" aboveAverage="0" stdDev="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
